--- a/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/2018_AcidDigestions_EDI.xlsx
+++ b/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/2018_AcidDigestions_EDI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/Virginia Tech/Sed Traps/2018/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/GitHub/Reservoirs/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A564A73A-ABBB-D644-85DB-F6B724304320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93FA0D2-DA8E-FF44-846C-51407EF683C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{54D1672F-AEFC-49AD-A5F6-5E1CA1986834}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" xr2:uid="{54D1672F-AEFC-49AD-A5F6-5E1CA1986834}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="143">
   <si>
     <t>F_Sed_4m_21May18</t>
   </si>
@@ -288,9 +288,6 @@
     <t>13_21Sep18</t>
   </si>
   <si>
-    <t>14_21Sep18</t>
-  </si>
-  <si>
     <t>13_05Oct18</t>
   </si>
   <si>
@@ -313,16 +310,173 @@
   </si>
   <si>
     <t>10_1</t>
+  </si>
+  <si>
+    <t>F_Sed_4m_R1_F1_21May18</t>
+  </si>
+  <si>
+    <t>F_Sed_4m_R2_F4_21May18</t>
+  </si>
+  <si>
+    <t>F_Sed_8m_R1_F1_28May18</t>
+  </si>
+  <si>
+    <t>F_Sed_8m_R2_F3_28May18</t>
+  </si>
+  <si>
+    <t>F_Sed_4m_R1_F1_04Jun18</t>
+  </si>
+  <si>
+    <t>F_Sed_4m_R2_F3_04Jun18</t>
+  </si>
+  <si>
+    <t>F_Sed_8m_R1_F1_11Jun18</t>
+  </si>
+  <si>
+    <t>F_Sed_8m_R2_F3_11Jun18</t>
+  </si>
+  <si>
+    <t>F_Sed_4m_R1_F1_25Jun18</t>
+  </si>
+  <si>
+    <t>F_Sed_4m_R2_F3_25Jun18</t>
+  </si>
+  <si>
+    <t>F_Sed_8m_R1_F5_25Jun18</t>
+  </si>
+  <si>
+    <t>F_Sed_8m_R2_F7_25Jun18</t>
+  </si>
+  <si>
+    <t>F_Sed_4m_R1_F1_02Jul18</t>
+  </si>
+  <si>
+    <t>F_Sed_4m_R2_F3_02Jul18</t>
+  </si>
+  <si>
+    <t>F_Sed_8m_R1_F1_09Jul18</t>
+  </si>
+  <si>
+    <t>F_Sed_8m_R2_F3_09Jul18</t>
+  </si>
+  <si>
+    <t>F_Sed_4m_R1_F1_16Jul18</t>
+  </si>
+  <si>
+    <t>F_Sed_4m_R2_F3_16Jul18</t>
+  </si>
+  <si>
+    <t>F_Sed_8m_R1_F1_23Jul18</t>
+  </si>
+  <si>
+    <t>F_Sed_8m_R2_F3_23Jul18</t>
+  </si>
+  <si>
+    <t>B_Sed_8m_R1_F1_02Aug18</t>
+  </si>
+  <si>
+    <t>B_Sed_8m_R2_F3_02Aug18</t>
+  </si>
+  <si>
+    <t>F_Sed_8m_R1_F1_13Aug18</t>
+  </si>
+  <si>
+    <t>F_Sed_8m_R2_F3_13Aug18</t>
+  </si>
+  <si>
+    <t>F_Sed_4m_R1_F1_20Aug18</t>
+  </si>
+  <si>
+    <t>F_Sed_4m_R2_F3_20Aug18</t>
+  </si>
+  <si>
+    <t>F_Sed_8m_R1_F1_27Aug18</t>
+  </si>
+  <si>
+    <t>F_Sed_8m_R2_F3_27Aug18</t>
+  </si>
+  <si>
+    <t>F_Sed_4m_R1_F1_03Sep18</t>
+  </si>
+  <si>
+    <t>F_Sed_4m_R2_F3_03Sep18</t>
+  </si>
+  <si>
+    <t>B_Sed_4m_R1_F1_07Sep18</t>
+  </si>
+  <si>
+    <t>B_Sed_4m_R2_F3_07Sep18</t>
+  </si>
+  <si>
+    <t>B_Sed_8m_R1_F1_07Sep18</t>
+  </si>
+  <si>
+    <t>B_Sed_8m_R2_F3_07Sep18</t>
+  </si>
+  <si>
+    <t>F_Sed_8m_R1_F1_10Sep18</t>
+  </si>
+  <si>
+    <t>F_Sed_8m_R2_F3_10Sep18</t>
+  </si>
+  <si>
+    <t>B_Sed_4m_R1_F1_21Sep18</t>
+  </si>
+  <si>
+    <t>B_Sed_4m_R2_F3_21Sep18</t>
+  </si>
+  <si>
+    <t>B_Sed_8m_R1_F1_21Sep18</t>
+  </si>
+  <si>
+    <t>7_21Sep18</t>
+  </si>
+  <si>
+    <t>B_Sed_4m_R1_F1_05Oct18</t>
+  </si>
+  <si>
+    <t>B_Sed_4m_R2_F3_05Oct18</t>
+  </si>
+  <si>
+    <t>B_Sed_8m_R1_F1_05Oct18</t>
+  </si>
+  <si>
+    <t>B_Sed_8m_R2_F3_05Oct18</t>
+  </si>
+  <si>
+    <t>F_Sed_4m_R1_F1_08Oct18</t>
+  </si>
+  <si>
+    <t>F_Sed_4m_R2_F3_08Oct18</t>
+  </si>
+  <si>
+    <t>F_Sed_8m_R1_F1_22Oct18</t>
+  </si>
+  <si>
+    <t>F_Sed_8m_R2_F3_22Oct18</t>
+  </si>
+  <si>
+    <t>F_Sed_4m_R1_F1_29Oct18</t>
+  </si>
+  <si>
+    <t>F_Sed_4m_R2_F3_29Oct18</t>
+  </si>
+  <si>
+    <t>F_Sed_8m_R1_F1_29Oct18</t>
+  </si>
+  <si>
+    <t>F_Sed_8m_R2_F3_29Oct18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000E+00"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -908,7 +1062,7 @@
     <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -971,6 +1125,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -1329,13 +1484,13 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A29"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.83203125" customWidth="1"/>
+    <col min="2" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="10.83203125" customWidth="1"/>
     <col min="10" max="10" width="23.33203125" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" customWidth="1"/>
   </cols>
@@ -1383,7 +1538,16 @@
         <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2">
+        <v>1.1220000000000001E-2</v>
+      </c>
+      <c r="H2">
+        <v>1.2189999999999999E-2</v>
       </c>
       <c r="I2">
         <v>0.01</v>
@@ -1403,7 +1567,16 @@
         <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3">
+        <v>7.3600000000000002E-3</v>
+      </c>
+      <c r="H3">
+        <v>7.9799999999999992E-3</v>
       </c>
       <c r="I3">
         <v>0.01</v>
@@ -1423,7 +1596,16 @@
         <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4">
+        <v>1.242E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.1220000000000001E-2</v>
       </c>
       <c r="I4">
         <v>0.01</v>
@@ -1443,7 +1625,16 @@
         <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5">
+        <v>9.0399999999999994E-3</v>
+      </c>
+      <c r="H5">
+        <v>8.6499999999999997E-3</v>
       </c>
       <c r="I5">
         <v>0.01</v>
@@ -1463,7 +1654,16 @@
         <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>3.3600000000000001E-3</v>
+      </c>
+      <c r="H6">
+        <v>2.9199999999999999E-3</v>
       </c>
       <c r="I6">
         <v>0.01</v>
@@ -1483,7 +1683,16 @@
         <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7">
+        <v>4.5799999999999999E-3</v>
+      </c>
+      <c r="H7">
+        <v>5.0099999999999997E-3</v>
       </c>
       <c r="I7">
         <v>0.01</v>
@@ -1503,7 +1712,16 @@
         <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8">
+        <v>2.2899999999999999E-3</v>
+      </c>
+      <c r="H8" s="36">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I8">
         <v>0.01</v>
@@ -1523,7 +1741,16 @@
         <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9">
+        <v>5.3200000000000001E-3</v>
+      </c>
+      <c r="H9">
+        <v>3.5699999999999998E-3</v>
       </c>
       <c r="I9">
         <v>9.9000000000000008E-3</v>
@@ -1543,7 +1770,16 @@
         <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10">
+        <v>2.2899999999999999E-3</v>
+      </c>
+      <c r="H10">
+        <v>2.7599999999999999E-3</v>
       </c>
       <c r="I10">
         <v>0.01</v>
@@ -1563,7 +1799,16 @@
         <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11">
+        <v>5.5599999999999998E-3</v>
+      </c>
+      <c r="H11">
+        <v>5.6499999999999996E-3</v>
       </c>
       <c r="I11">
         <v>9.9000000000000008E-3</v>
@@ -1583,7 +1828,16 @@
         <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12">
+        <v>3.6800000000000001E-3</v>
+      </c>
+      <c r="H12">
+        <v>5.0800000000000003E-3</v>
       </c>
       <c r="I12">
         <v>9.9000000000000008E-3</v>
@@ -1603,7 +1857,16 @@
         <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13">
+        <v>2.96E-3</v>
+      </c>
+      <c r="H13">
+        <v>4.8300000000000001E-3</v>
       </c>
       <c r="I13">
         <v>0.01</v>
@@ -1623,7 +1886,16 @@
         <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>115</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14">
+        <v>4.9800000000000001E-3</v>
+      </c>
+      <c r="H14">
+        <v>4.47E-3</v>
       </c>
       <c r="I14">
         <v>0.01</v>
@@ -1643,7 +1915,16 @@
         <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>117</v>
+      </c>
+      <c r="C15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15">
+        <v>6.5700000000000003E-3</v>
+      </c>
+      <c r="H15">
+        <v>5.0899999999999999E-3</v>
       </c>
       <c r="I15">
         <v>0.01</v>
@@ -1663,7 +1944,16 @@
         <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>119</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16">
+        <v>2.6199999999999999E-3</v>
+      </c>
+      <c r="H16">
+        <v>2.3500000000000001E-3</v>
       </c>
       <c r="I16">
         <v>9.9000000000000008E-3</v>
@@ -1683,7 +1973,16 @@
         <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17">
+        <v>3.5899999999999999E-3</v>
+      </c>
+      <c r="H17">
+        <v>4.3099999999999996E-3</v>
       </c>
       <c r="I17">
         <v>9.9000000000000008E-3</v>
@@ -1703,7 +2002,16 @@
         <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>123</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18">
+        <v>5.62E-3</v>
+      </c>
+      <c r="H18">
+        <v>8.0499999999999999E-3</v>
       </c>
       <c r="I18">
         <v>9.9000000000000008E-3</v>
@@ -1723,7 +2031,16 @@
         <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19">
+        <v>1.367E-2</v>
+      </c>
+      <c r="H19">
+        <v>8.43E-3</v>
       </c>
       <c r="I19">
         <v>9.9000000000000008E-3</v>
@@ -1743,7 +2060,16 @@
         <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>127</v>
+      </c>
+      <c r="C20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20">
+        <v>4.79E-3</v>
+      </c>
+      <c r="H20" s="36">
+        <v>4.3E-3</v>
       </c>
       <c r="I20">
         <v>9.7999999999999997E-3</v>
@@ -1760,10 +2086,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>129</v>
+      </c>
+      <c r="G21">
+        <v>3.8600000000000001E-3</v>
       </c>
       <c r="I21">
         <v>9.7999999999999997E-3</v>
@@ -1780,10 +2109,19 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>131</v>
+      </c>
+      <c r="C22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22">
+        <v>4.7099999999999998E-3</v>
+      </c>
+      <c r="H22">
+        <v>3.48E-3</v>
       </c>
       <c r="I22">
         <v>9.7999999999999997E-3</v>
@@ -1800,10 +2138,19 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>133</v>
+      </c>
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23">
+        <v>5.7600000000000004E-3</v>
+      </c>
+      <c r="H23">
+        <v>5.3899999999999998E-3</v>
       </c>
       <c r="I23">
         <v>9.7999999999999997E-3</v>
@@ -1820,10 +2167,19 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>135</v>
+      </c>
+      <c r="C24" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24">
+        <v>2.9099999999999998E-3</v>
+      </c>
+      <c r="H24">
+        <v>2.1700000000000001E-3</v>
       </c>
       <c r="I24">
         <v>9.7999999999999997E-3</v>
@@ -1840,10 +2196,19 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>137</v>
+      </c>
+      <c r="C25" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25">
+        <v>1.0489999999999999E-2</v>
+      </c>
+      <c r="H25">
+        <v>1.103E-2</v>
       </c>
       <c r="I25">
         <v>9.7999999999999997E-3</v>
@@ -1860,10 +2225,19 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26">
+        <v>6.3200000000000001E-3</v>
+      </c>
+      <c r="H26">
+        <v>7.9699999999999997E-3</v>
       </c>
       <c r="I26">
         <v>9.7999999999999997E-3</v>
@@ -1880,10 +2254,19 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="H27">
+        <v>5.8599999999999998E-3</v>
       </c>
       <c r="I27">
         <v>9.7999999999999997E-3</v>
@@ -1900,7 +2283,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -1908,7 +2291,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>

--- a/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/2018_AcidDigestions_EDI.xlsx
+++ b/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/2018_AcidDigestions_EDI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/GitHub/Reservoirs/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93FA0D2-DA8E-FF44-846C-51407EF683C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE523A6E-A219-4D49-A533-9707064EBF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" xr2:uid="{54D1672F-AEFC-49AD-A5F6-5E1CA1986834}"/>
   </bookViews>
@@ -234,9 +234,6 @@
     <t>11_21May18</t>
   </si>
   <si>
-    <t>12_21May18</t>
-  </si>
-  <si>
     <t>11_04Jun18</t>
   </si>
   <si>
@@ -466,6 +463,9 @@
   </si>
   <si>
     <t>F_Sed_8m_R2_F3_29Oct18</t>
+  </si>
+  <si>
+    <t>12_28May18</t>
   </si>
 </sst>
 </file>
@@ -1484,7 +1484,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1538,10 +1538,10 @@
         <v>64</v>
       </c>
       <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
         <v>91</v>
-      </c>
-      <c r="C2" t="s">
-        <v>92</v>
       </c>
       <c r="G2">
         <v>1.1220000000000001E-2</v>
@@ -1564,13 +1564,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
         <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
       </c>
       <c r="G3">
         <v>7.3600000000000002E-3</v>
@@ -1593,13 +1593,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
         <v>95</v>
-      </c>
-      <c r="C4" t="s">
-        <v>96</v>
       </c>
       <c r="G4">
         <v>1.242E-2</v>
@@ -1622,13 +1622,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
         <v>97</v>
-      </c>
-      <c r="C5" t="s">
-        <v>98</v>
       </c>
       <c r="G5">
         <v>9.0399999999999994E-3</v>
@@ -1651,13 +1651,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
         <v>99</v>
-      </c>
-      <c r="C6" t="s">
-        <v>100</v>
       </c>
       <c r="G6">
         <v>3.3600000000000001E-3</v>
@@ -1680,13 +1680,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
         <v>101</v>
-      </c>
-      <c r="C7" t="s">
-        <v>102</v>
       </c>
       <c r="G7">
         <v>4.5799999999999999E-3</v>
@@ -1709,13 +1709,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
         <v>103</v>
-      </c>
-      <c r="C8" t="s">
-        <v>104</v>
       </c>
       <c r="G8">
         <v>2.2899999999999999E-3</v>
@@ -1738,13 +1738,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
         <v>105</v>
-      </c>
-      <c r="C9" t="s">
-        <v>106</v>
       </c>
       <c r="G9">
         <v>5.3200000000000001E-3</v>
@@ -1767,13 +1767,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
         <v>107</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
       </c>
       <c r="G10">
         <v>2.2899999999999999E-3</v>
@@ -1796,13 +1796,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" t="s">
         <v>109</v>
-      </c>
-      <c r="C11" t="s">
-        <v>110</v>
       </c>
       <c r="G11">
         <v>5.5599999999999998E-3</v>
@@ -1825,13 +1825,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" t="s">
         <v>111</v>
-      </c>
-      <c r="C12" t="s">
-        <v>112</v>
       </c>
       <c r="G12">
         <v>3.6800000000000001E-3</v>
@@ -1854,13 +1854,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" t="s">
         <v>113</v>
-      </c>
-      <c r="C13" t="s">
-        <v>114</v>
       </c>
       <c r="G13">
         <v>2.96E-3</v>
@@ -1883,13 +1883,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
         <v>115</v>
-      </c>
-      <c r="C14" t="s">
-        <v>116</v>
       </c>
       <c r="G14">
         <v>4.9800000000000001E-3</v>
@@ -1912,13 +1912,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" t="s">
         <v>117</v>
-      </c>
-      <c r="C15" t="s">
-        <v>118</v>
       </c>
       <c r="G15">
         <v>6.5700000000000003E-3</v>
@@ -1941,13 +1941,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
         <v>119</v>
-      </c>
-      <c r="C16" t="s">
-        <v>120</v>
       </c>
       <c r="G16">
         <v>2.6199999999999999E-3</v>
@@ -1970,13 +1970,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" t="s">
         <v>121</v>
-      </c>
-      <c r="C17" t="s">
-        <v>122</v>
       </c>
       <c r="G17">
         <v>3.5899999999999999E-3</v>
@@ -1999,13 +1999,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" t="s">
         <v>123</v>
-      </c>
-      <c r="C18" t="s">
-        <v>124</v>
       </c>
       <c r="G18">
         <v>5.62E-3</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" t="s">
         <v>125</v>
-      </c>
-      <c r="C19" t="s">
-        <v>126</v>
       </c>
       <c r="G19">
         <v>1.367E-2</v>
@@ -2057,13 +2057,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" t="s">
         <v>127</v>
-      </c>
-      <c r="C20" t="s">
-        <v>128</v>
       </c>
       <c r="G20">
         <v>4.79E-3</v>
@@ -2086,10 +2086,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G21">
         <v>3.8600000000000001E-3</v>
@@ -2109,13 +2109,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" t="s">
         <v>131</v>
-      </c>
-      <c r="C22" t="s">
-        <v>132</v>
       </c>
       <c r="G22">
         <v>4.7099999999999998E-3</v>
@@ -2138,13 +2138,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" t="s">
         <v>133</v>
-      </c>
-      <c r="C23" t="s">
-        <v>134</v>
       </c>
       <c r="G23">
         <v>5.7600000000000004E-3</v>
@@ -2167,13 +2167,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" t="s">
         <v>135</v>
-      </c>
-      <c r="C24" t="s">
-        <v>136</v>
       </c>
       <c r="G24">
         <v>2.9099999999999998E-3</v>
@@ -2196,13 +2196,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" t="s">
         <v>137</v>
-      </c>
-      <c r="C25" t="s">
-        <v>138</v>
       </c>
       <c r="G25">
         <v>1.0489999999999999E-2</v>
@@ -2225,13 +2225,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" t="s">
         <v>139</v>
-      </c>
-      <c r="C26" t="s">
-        <v>140</v>
       </c>
       <c r="G26">
         <v>6.3200000000000001E-3</v>
@@ -2254,13 +2254,13 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" t="s">
         <v>141</v>
-      </c>
-      <c r="C27" t="s">
-        <v>142</v>
       </c>
       <c r="G27">
         <v>5.2500000000000003E-3</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
